--- a/Output workbooks/international_migration_calculations.xlsx
+++ b/Output workbooks/international_migration_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centreforcities.sharepoint.com/sites/CentreForCities3/Shared Documents/Research/Social and Demographics/Escape to the Country/Data/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.Lange\Documents\GitHub\urban-population-internal-migration\Output workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{014F7B3C-A698-4537-BD67-7ABAC580BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C7C970-7A67-4268-BFA2-0AA0CC0BCDE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59029E-C063-4DDB-A50F-5624A9B261D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="2" r:id="rId1"/>
@@ -161,13 +161,13 @@
     <t>Copied from left</t>
   </si>
   <si>
-    <t>Pasted from 2024-02-15_Internal_migration</t>
-  </si>
-  <si>
-    <t>Pasted from 2024-01-25urbanpopulationcalculations</t>
-  </si>
-  <si>
-    <t>Pasted from 2024_02_21_Natural Increase</t>
+    <t>Pasted from internal migration statistics</t>
+  </si>
+  <si>
+    <t>Pasted from urban population statistics</t>
+  </si>
+  <si>
+    <t>Pasted from natural increase data</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2953,7 +2953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E1CBCD-14BF-4BD4-8E36-205EEC4F3FC0}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3741,14 +3743,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a436561-34c6-48a8-833e-99c650fd3fe3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="25475540-9773-43a3-8df6-094be5ca1716" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4007,21 +4007,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a436561-34c6-48a8-833e-99c650fd3fe3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="25475540-9773-43a3-8df6-094be5ca1716" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD23202E-E346-4106-AEFC-1EE081E8C743}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864AF008-90A8-4B00-98B1-FADC393CEFAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a436561-34c6-48a8-833e-99c650fd3fe3"/>
-    <ds:schemaRef ds:uri="25475540-9773-43a3-8df6-094be5ca1716"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4046,9 +4045,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864AF008-90A8-4B00-98B1-FADC393CEFAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD23202E-E346-4106-AEFC-1EE081E8C743}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a436561-34c6-48a8-833e-99c650fd3fe3"/>
+    <ds:schemaRef ds:uri="25475540-9773-43a3-8df6-094be5ca1716"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Output workbooks/international_migration_calculations.xlsx
+++ b/Output workbooks/international_migration_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.Lange\Documents\GitHub\urban-population-internal-migration\Output workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centreforcities.sharepoint.com/sites/CentreForCities3/Shared Documents/Research/Social and Demographics/Escape to the Country/Data/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59029E-C063-4DDB-A50F-5624A9B261D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{014F7B3C-A698-4537-BD67-7ABAC580BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE8160B-F224-4391-BE98-D826EBB00C62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Population data" sheetId="3" r:id="rId3"/>
     <sheet name="Births &amp; deaths data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,16 +41,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>Copied from left</t>
+  </si>
+  <si>
+    <t>Population change</t>
+  </si>
+  <si>
+    <t>2014-19 average</t>
+  </si>
+  <si>
     <t>Natural increase</t>
   </si>
   <si>
+    <t>Net migration (to rest of UK)</t>
+  </si>
+  <si>
+    <t>Population change without international migration</t>
+  </si>
+  <si>
+    <t>Imputed net international migration</t>
+  </si>
+  <si>
+    <t>Diff between 2020-21 and pre-covid average</t>
+  </si>
+  <si>
+    <t>Pasted from 2024-02-15_Internal_migration</t>
+  </si>
+  <si>
+    <t>Net internal migration</t>
+  </si>
+  <si>
+    <t>Pasted from 2024-01-25urbanpopulationcalculations</t>
+  </si>
+  <si>
+    <t>PUA</t>
+  </si>
+  <si>
+    <t>London change</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>E&amp;W change</t>
+  </si>
+  <si>
+    <t>E&amp;W excl. London</t>
+  </si>
+  <si>
+    <t>Pasted from 2024_02_21_Natural Increase</t>
+  </si>
+  <si>
     <t>Geography</t>
   </si>
   <si>
-    <t>2014-19 average</t>
-  </si>
-  <si>
-    <t>London</t>
+    <t>2015-2022 NI change</t>
+  </si>
+  <si>
+    <t>Urban (incl. LDN)</t>
+  </si>
+  <si>
+    <t>Non urban</t>
   </si>
   <si>
     <t>E&amp;W</t>
@@ -62,112 +155,19 @@
     <t xml:space="preserve">Births </t>
   </si>
   <si>
+    <t>2022 vs 2015</t>
+  </si>
+  <si>
+    <t>2015-2022 drop</t>
+  </si>
+  <si>
     <t>E&amp;W (not London)</t>
   </si>
   <si>
     <t>Deaths</t>
   </si>
   <si>
-    <t>Population change</t>
-  </si>
-  <si>
-    <t>PUA</t>
-  </si>
-  <si>
-    <t>2021-22</t>
-  </si>
-  <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Wales</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>London change</t>
-  </si>
-  <si>
-    <t>E&amp;W change</t>
-  </si>
-  <si>
-    <t>E&amp;W excl. London</t>
-  </si>
-  <si>
-    <t>Net internal migration</t>
-  </si>
-  <si>
-    <t>Net migration (to rest of UK)</t>
-  </si>
-  <si>
-    <t>Population change without international migration</t>
-  </si>
-  <si>
-    <t>Imputed net international migration</t>
-  </si>
-  <si>
-    <t>2022 vs 2015</t>
-  </si>
-  <si>
-    <t>2015-2022 drop</t>
-  </si>
-  <si>
     <t>2015-2022 increase</t>
-  </si>
-  <si>
-    <t>2015-2022 NI change</t>
-  </si>
-  <si>
-    <t>Urban (incl. LDN)</t>
-  </si>
-  <si>
-    <t>Non urban</t>
-  </si>
-  <si>
-    <t>Diff between 2020-21 and pre-covid average</t>
-  </si>
-  <si>
-    <t>Copied from left</t>
-  </si>
-  <si>
-    <t>Pasted from internal migration statistics</t>
-  </si>
-  <si>
-    <t>Pasted from urban population statistics</t>
-  </si>
-  <si>
-    <t>Pasted from natural increase data</t>
   </si>
 </sst>
 </file>
@@ -605,28 +605,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-79185.341</c:v>
+                  <c:v>-80098.361099999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-101790.927</c:v>
+                  <c:v>-103190.463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-122619.31</c:v>
+                  <c:v>-124906.06050000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-112579.61599999999</c:v>
+                  <c:v>-113797.4243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-98289.676399999997</c:v>
+                  <c:v>-99635.339399999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-113749.4449</c:v>
+                  <c:v>-114503.7825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-190579.23439999999</c:v>
+                  <c:v>-190613.9002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-131785.74470000001</c:v>
+                  <c:v>-131094.5123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,28 +703,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>118655.477</c:v>
+                  <c:v>119568.49709999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110574.53499999999</c:v>
+                  <c:v>111974.071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76586.417999999991</c:v>
+                  <c:v>78873.1685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98380.56</c:v>
+                  <c:v>99598.368300000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88096.328399999999</c:v>
+                  <c:v>89441.991399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37411.400900000001</c:v>
+                  <c:v>38165.738499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73624.434399999969</c:v>
+                  <c:v>73659.100199999986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137321.57670000001</c:v>
+                  <c:v>136630.3443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,57 +1835,57 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16:T17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="7" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>'Population data'!C6</f>
@@ -1921,39 +1921,39 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
         <v>11</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>83318.864000000001</v>
@@ -1981,241 +1981,273 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>-79185.341</v>
-      </c>
-      <c r="M3">
-        <v>-101790.927</v>
-      </c>
-      <c r="N3">
-        <v>-122619.31</v>
-      </c>
-      <c r="O3">
-        <v>-112579.61599999999</v>
-      </c>
-      <c r="P3">
-        <v>-98289.676399999997</v>
-      </c>
-      <c r="Q3">
-        <v>-113749.4449</v>
-      </c>
-      <c r="R3">
-        <v>-190579.23439999999</v>
-      </c>
-      <c r="S3">
-        <v>-131785.74470000001</v>
+        <v>13</v>
+      </c>
+      <c r="L3" s="3">
+        <f>B4</f>
+        <v>-80098.361099999995</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:S3" si="0">C4</f>
+        <v>-103190.463</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>-124906.06050000001</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>-113797.4243</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>-99635.339399999997</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>-114503.7825</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>-190613.9002</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>-131094.5123</v>
       </c>
       <c r="U3">
         <f>SUM(L3:P3)/5</f>
-        <v>-102892.97407999999</v>
+        <v>-104325.52966</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <f>'Internal migration data'!B4</f>
-        <v>-79185.341</v>
+        <v>-80098.361099999995</v>
       </c>
       <c r="C4" s="3">
         <f>'Internal migration data'!C4</f>
-        <v>-101790.927</v>
+        <v>-103190.463</v>
       </c>
       <c r="D4" s="3">
         <f>'Internal migration data'!D4</f>
-        <v>-122619.31</v>
+        <v>-124906.06050000001</v>
       </c>
       <c r="E4" s="3">
         <f>'Internal migration data'!E4</f>
-        <v>-112579.61599999999</v>
+        <v>-113797.4243</v>
       </c>
       <c r="F4" s="3">
         <f>'Internal migration data'!F4</f>
-        <v>-98289.676399999997</v>
+        <v>-99635.339399999997</v>
       </c>
       <c r="G4" s="3">
         <f>'Internal migration data'!G4</f>
-        <v>-113749.4449</v>
+        <v>-114503.7825</v>
       </c>
       <c r="H4" s="3">
         <f>'Internal migration data'!H4</f>
-        <v>-190579.23439999999</v>
+        <v>-190613.9002</v>
       </c>
       <c r="I4" s="3">
         <f>'Internal migration data'!I4</f>
-        <v>-131785.74470000001</v>
+        <v>-131094.5123</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3">
+        <f>B3</f>
         <v>83318.864000000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:S4" si="1">C3</f>
         <v>85587.392000000007</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
         <v>83749.892000000007</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
         <v>77872.055999999997</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
+        <f t="shared" si="1"/>
         <v>75987.347999999998</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
+        <f t="shared" si="1"/>
         <v>58483.044000000002</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
+        <f t="shared" si="1"/>
         <v>59287.8</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
+        <f t="shared" si="1"/>
         <v>60899.167999999998</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U6" si="0">SUM(L4:P4)/5</f>
+        <f t="shared" ref="U4:U6" si="2">SUM(L4:P4)/5</f>
         <v>81303.11039999999</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <f>B4+B3</f>
-        <v>4133.523000000001</v>
+        <v>3220.5029000000068</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:I5" si="1">C4+C3</f>
-        <v>-16203.534999999989</v>
+        <f t="shared" ref="C5:I5" si="3">C4+C3</f>
+        <v>-17603.070999999996</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>-38869.417999999991</v>
+        <f t="shared" si="3"/>
+        <v>-41156.1685</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>-34707.56</v>
+        <f t="shared" si="3"/>
+        <v>-35925.368300000002</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>-22302.328399999999</v>
+        <f t="shared" si="3"/>
+        <v>-23647.991399999999</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>-55266.400900000001</v>
+        <f t="shared" si="3"/>
+        <v>-56020.738499999999</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
-        <v>-131291.43439999997</v>
+        <f t="shared" si="3"/>
+        <v>-131326.10019999999</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
-        <v>-70886.576700000005</v>
+        <f t="shared" si="3"/>
+        <v>-70195.344299999997</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5">
-        <v>118655.477</v>
-      </c>
-      <c r="M5">
-        <v>110574.53499999999</v>
-      </c>
-      <c r="N5">
-        <v>76586.417999999991</v>
-      </c>
-      <c r="O5">
-        <v>98380.56</v>
-      </c>
-      <c r="P5">
-        <v>88096.328399999999</v>
-      </c>
-      <c r="Q5">
-        <v>37411.400900000001</v>
-      </c>
-      <c r="R5">
-        <v>73624.434399999969</v>
-      </c>
-      <c r="S5">
-        <v>137321.57670000001</v>
+        <v>15</v>
+      </c>
+      <c r="L5" s="3">
+        <f>B6</f>
+        <v>119568.49709999999</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:S5" si="4">C6</f>
+        <v>111974.071</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="4"/>
+        <v>78873.1685</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="4"/>
+        <v>99598.368300000002</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>89441.991399999999</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="4"/>
+        <v>38165.738499999999</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>73659.100199999986</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="4"/>
+        <v>136630.3443</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
-        <v>98458.663679999998</v>
+        <f t="shared" si="2"/>
+        <v>99891.219259999983</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <f>B2-B5</f>
-        <v>118655.477</v>
+        <v>119568.49709999999</v>
       </c>
       <c r="C6" s="3">
         <f>C2-C5</f>
-        <v>110574.53499999999</v>
+        <v>111974.071</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:I6" si="2">D2-D5</f>
-        <v>76586.417999999991</v>
+        <f t="shared" ref="D6:I6" si="5">D2-D5</f>
+        <v>78873.1685</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>98380.56</v>
+        <f t="shared" si="5"/>
+        <v>99598.368300000002</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>88096.328399999999</v>
+        <f t="shared" si="5"/>
+        <v>89441.991399999999</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>37411.400900000001</v>
+        <f t="shared" si="5"/>
+        <v>38165.738499999999</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>73624.434399999969</v>
+        <f t="shared" si="5"/>
+        <v>73659.100199999986</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
-        <v>137321.57670000001</v>
+        <f t="shared" si="5"/>
+        <v>136630.3443</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <f>B2</f>
         <v>122789</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
+        <f t="shared" ref="M6:S6" si="6">C2</f>
         <v>94371</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
+        <f t="shared" si="6"/>
         <v>37717</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
+        <f t="shared" si="6"/>
         <v>63673</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
+        <f t="shared" si="6"/>
         <v>65794</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
+        <f t="shared" si="6"/>
         <v>-17855</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
+        <f t="shared" si="6"/>
         <v>-57667</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
+        <f t="shared" si="6"/>
         <v>66435</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76868.800000000003</v>
       </c>
     </row>
@@ -2242,7 +2274,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2259,7 +2291,7 @@
       <c r="K9" s="6"/>
       <c r="Q9" s="3">
         <f>R3-U3</f>
-        <v>-87686.260320000001</v>
+        <v>-86288.370540000004</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2274,7 +2306,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10:Q11" si="3">R4-U4</f>
+        <f t="shared" ref="Q10:Q11" si="7">R4-U4</f>
         <v>-22015.310399999988</v>
       </c>
     </row>
@@ -2290,8 +2322,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="Q11" s="3">
-        <f t="shared" si="3"/>
-        <v>-24834.229280000029</v>
+        <f t="shared" si="7"/>
+        <v>-26232.119059999997</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2406,7 +2438,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,12 +2448,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2435,57 +2467,57 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>-79185.341</v>
+        <v>-80098.361099999995</v>
       </c>
       <c r="C4" s="4">
-        <v>-101790.927</v>
+        <v>-103190.463</v>
       </c>
       <c r="D4" s="4">
-        <v>-122619.31</v>
+        <v>-124906.06050000001</v>
       </c>
       <c r="E4" s="4">
-        <v>-112579.61599999999</v>
+        <v>-113797.4243</v>
       </c>
       <c r="F4" s="4">
-        <v>-98289.676399999997</v>
+        <v>-99635.339399999997</v>
       </c>
       <c r="G4">
-        <v>-113749.4449</v>
+        <v>-114503.7825</v>
       </c>
       <c r="H4">
-        <v>-190579.23439999999</v>
+        <v>-190613.9002</v>
       </c>
       <c r="I4">
-        <v>-131785.74470000001</v>
+        <v>-131094.5123</v>
       </c>
     </row>
   </sheetData>
@@ -2508,12 +2540,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2014</v>
@@ -2545,7 +2577,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>9773527</v>
@@ -2577,33 +2609,33 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:J6" si="0">C4-B4</f>
@@ -2640,7 +2672,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>2014</v>
@@ -2672,7 +2704,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>52724032</v>
@@ -2704,7 +2736,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>1840498</v>
@@ -2736,7 +2768,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>5347600</v>
@@ -2768,7 +2800,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>3073788</v>
@@ -2800,7 +2832,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:J13" si="1">SUM(B12+B9)</f>
@@ -2842,33 +2874,33 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:J15" si="2">C13-B13</f>
@@ -2908,7 +2940,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <f>C15-C6</f>
@@ -2953,9 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E1CBCD-14BF-4BD4-8E36-205EEC4F3FC0}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2965,12 +2995,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2984,7 +3014,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>2015</v>
@@ -3011,15 +3041,15 @@
         <v>2022</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>83318.864000000001</v>
@@ -3055,7 +3085,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <f>B7-B6</f>
@@ -3100,7 +3130,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>645.83600000000195</v>
@@ -3133,7 +3163,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>163923.82399999999</v>
@@ -3169,7 +3199,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>80604.959999999992</v>
@@ -3211,7 +3241,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3225,7 +3255,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <v>2015</v>
@@ -3252,18 +3282,18 @@
         <v>2022</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>144382.864</v>
@@ -3303,7 +3333,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <f>B16-B15</f>
@@ -3352,7 +3382,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>250458.83600000001</v>
@@ -3392,7 +3422,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>684844.82400000002</v>
@@ -3432,7 +3462,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>540461.96</v>
@@ -3478,7 +3508,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3492,7 +3522,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>2015</v>
@@ -3519,18 +3549,18 @@
         <v>2022</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>61064</v>
@@ -3570,7 +3600,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <f>B25-B24</f>
@@ -3619,7 +3649,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>256071</v>
@@ -3659,7 +3689,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>527179</v>
@@ -3699,7 +3729,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>466115</v>
@@ -3743,12 +3773,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a436561-34c6-48a8-833e-99c650fd3fe3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="25475540-9773-43a3-8df6-094be5ca1716" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4007,20 +4039,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a436561-34c6-48a8-833e-99c650fd3fe3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="25475540-9773-43a3-8df6-094be5ca1716" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864AF008-90A8-4B00-98B1-FADC393CEFAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD23202E-E346-4106-AEFC-1EE081E8C743}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a436561-34c6-48a8-833e-99c650fd3fe3"/>
+    <ds:schemaRef ds:uri="25475540-9773-43a3-8df6-094be5ca1716"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4045,12 +4078,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD23202E-E346-4106-AEFC-1EE081E8C743}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864AF008-90A8-4B00-98B1-FADC393CEFAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a436561-34c6-48a8-833e-99c650fd3fe3"/>
-    <ds:schemaRef ds:uri="25475540-9773-43a3-8df6-094be5ca1716"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Output workbooks/international_migration_calculations.xlsx
+++ b/Output workbooks/international_migration_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centreforcities.sharepoint.com/sites/CentreForCities3/Shared Documents/Research/Social and Demographics/Escape to the Country/Data/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.Lange\Documents\GitHub\urban-population-internal-migration\Output workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{014F7B3C-A698-4537-BD67-7ABAC580BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE8160B-F224-4391-BE98-D826EBB00C62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2870EDA-CFA9-4615-9D7F-5B097AF5C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="2" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Diff between 2020-21 and pre-covid average</t>
   </si>
   <si>
-    <t>Pasted from 2024-02-15_Internal_migration</t>
-  </si>
-  <si>
     <t>Net internal migration</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>2015-2022 increase</t>
+  </si>
+  <si>
+    <t>Pasted from 2024-03-15_Internal_migration</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FEB96B-658E-4043-8688-854FE6E9C2D4}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD01AE85-546E-45DD-BEA4-093A04D0B153}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,12 +2448,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2540,12 +2540,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>2014</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:J6" si="0">C4-B4</f>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>2014</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>52724032</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1840498</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>5347600</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>3073788</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:J13" si="1">SUM(B12+B9)</f>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:J15" si="2">C13-B13</f>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <f>C15-C6</f>
@@ -2995,7 +2995,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3014,7 +3014,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>2015</v>
@@ -3044,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <f>B7-B6</f>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>645.83600000000195</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>163923.82399999999</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>80604.959999999992</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>2015</v>
@@ -3285,10 +3285,10 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
         <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -3333,7 +3333,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <f>B16-B15</f>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>250458.83600000001</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>684844.82400000002</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>540461.96</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>2015</v>
@@ -3552,10 +3552,10 @@
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3600,7 +3600,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <f>B25-B24</f>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>256071</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>527179</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>466115</v>
@@ -3773,14 +3773,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a436561-34c6-48a8-833e-99c650fd3fe3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="25475540-9773-43a3-8df6-094be5ca1716" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4039,21 +4037,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a436561-34c6-48a8-833e-99c650fd3fe3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="25475540-9773-43a3-8df6-094be5ca1716" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD23202E-E346-4106-AEFC-1EE081E8C743}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864AF008-90A8-4B00-98B1-FADC393CEFAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a436561-34c6-48a8-833e-99c650fd3fe3"/>
-    <ds:schemaRef ds:uri="25475540-9773-43a3-8df6-094be5ca1716"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4078,9 +4075,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864AF008-90A8-4B00-98B1-FADC393CEFAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD23202E-E346-4106-AEFC-1EE081E8C743}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a436561-34c6-48a8-833e-99c650fd3fe3"/>
+    <ds:schemaRef ds:uri="25475540-9773-43a3-8df6-094be5ca1716"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>